--- a/results/RMR results/lmer_model_selection_basin_season.xlsx
+++ b/results/RMR results/lmer_model_selection_basin_season.xlsx
@@ -422,16 +422,16 @@
         <v>3171</v>
       </c>
       <c r="D2" t="n">
-        <v>14.2526957381869</v>
+        <v>14.2527016998416</v>
       </c>
       <c r="E2" t="n">
-        <v>-12963.1969860321</v>
+        <v>-12963.1969860433</v>
       </c>
       <c r="F2" t="n">
-        <v>25954.3939720643</v>
+        <v>25954.3939720866</v>
       </c>
       <c r="G2" t="n">
-        <v>26039.2592039078</v>
+        <v>26039.2592039302</v>
       </c>
       <c r="H2" t="n">
         <v>3157</v>
@@ -448,16 +448,16 @@
         <v>3171</v>
       </c>
       <c r="D3" t="n">
-        <v>14.5244762931432</v>
+        <v>14.524485676821</v>
       </c>
       <c r="E3" t="n">
-        <v>-13022.9662456039</v>
+        <v>-13022.9662456106</v>
       </c>
       <c r="F3" t="n">
-        <v>26057.9324912078</v>
+        <v>26057.9324912211</v>
       </c>
       <c r="G3" t="n">
-        <v>26094.303304855</v>
+        <v>26094.3033048683</v>
       </c>
       <c r="H3" t="n">
         <v>3165</v>
